--- a/imageCreationExcel/front/0901-1/0901-1_3_front.xlsx
+++ b/imageCreationExcel/front/0901-1/0901-1_3_front.xlsx
@@ -443,112 +443,112 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -562,217 +562,217 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/0901-1/0901-1_3_front.xlsx
+++ b/imageCreationExcel/front/0901-1/0901-1_3_front.xlsx
@@ -443,112 +443,112 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -562,147 +562,147 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -716,63 +716,63 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>D</t>
         </is>
       </c>
     </row>
